--- a/Personal development.xlsx
+++ b/Personal development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohumench\Documents\Olehs_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2A6B6-E667-4517-A9E8-881A8B67AA9F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C8A75-EBE4-42B9-91F2-9953DAD520B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perspective work ways." sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Buisness" sheetId="3" r:id="rId3"/>
     <sheet name="investments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>Engineering Level</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Scenarios</t>
   </si>
   <si>
-    <t>Embedet engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electronic service engineer </t>
   </si>
   <si>
@@ -262,6 +259,57 @@
   </si>
   <si>
     <t xml:space="preserve">Puthon for QA </t>
+  </si>
+  <si>
+    <t>Python statistics</t>
+  </si>
+  <si>
+    <t>DB enginiring</t>
+  </si>
+  <si>
+    <t>IEEE engireeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating electronic devises </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way </t>
+  </si>
+  <si>
+    <t xml:space="preserve">service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating LNA, filter  for sdr and sold on the ebay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating good quality sdr reciver </t>
+  </si>
+  <si>
+    <t>Creating cable analiser for looking for breakdowns and shorthand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating geo radar </t>
+  </si>
+  <si>
+    <t>Open  electronic learning class</t>
+  </si>
+  <si>
+    <t>Embedet software  engineering</t>
+  </si>
+  <si>
+    <t>Computer learning  FPGA coprocessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF radar dev kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry cammera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay the earth </t>
   </si>
 </sst>
 </file>
@@ -529,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -607,6 +655,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,7 +990,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,6 +1008,11 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
@@ -983,7 +1040,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -997,7 +1054,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1066,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1078,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1035,7 +1092,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1047,7 +1104,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1059,7 +1116,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1073,7 +1130,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1142,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1099,7 +1156,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
@@ -1111,7 +1168,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="17" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1180,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1137,7 +1194,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -1149,7 +1206,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1231,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1188,7 +1245,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="22" t="s">
         <v>57</v>
       </c>
@@ -1201,7 +1258,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -1215,7 +1272,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
@@ -1243,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,44 +1320,61 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1311,14 +1385,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD586B-AFF8-44AA-AE33-52C9DE9701E6}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -1326,14 +1494,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5D6ADC-6F7B-4B87-9D1E-0231205C8855}">
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Personal development.xlsx
+++ b/Personal development.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohumench\Documents\Olehs_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C8A75-EBE4-42B9-91F2-9953DAD520B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39050E66-D788-4B75-9E23-EE09E9BEB596}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Engineering Level</t>
   </si>
@@ -310,13 +310,25 @@
   </si>
   <si>
     <t xml:space="preserve">Bay the earth </t>
+  </si>
+  <si>
+    <t>https://www.olx.ua/obyavlenie/stavok-z-budinkom-IDBm2f7.html#cc0364d48d</t>
+  </si>
+  <si>
+    <t>Creaing peripheral(for osciloscope, network analizer) bench for measuring inductance, capacitance, PSRR measurements</t>
+  </si>
+  <si>
+    <t>https://www.olx.ua/obyavlenie/dacha-solonka-IDBZxc1.html#32751f5c63</t>
+  </si>
+  <si>
+    <t>https://www.olx.ua/obyavlenie/prodazh-dach-IDBXUfK.html#2a5bede4e9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -332,6 +344,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,10 +594,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -673,8 +694,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1385,16 +1408,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD586B-AFF8-44AA-AE33-52C9DE9701E6}">
-  <dimension ref="C1:F15"/>
+  <dimension ref="C1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -1427,62 +1450,69 @@
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="28"/>
-      <c r="E14" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
-      <c r="D15" s="28" t="s">
+      <c r="E15" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1494,15 +1524,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5D6ADC-6F7B-4B87-9D1E-0231205C8855}">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
@@ -1510,8 +1540,27 @@
         <v>93</v>
       </c>
     </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location="cc0364d48d" xr:uid="{3D20FBF5-50FF-4FD3-9758-80F9B3B3639B}"/>
+    <hyperlink ref="C6" r:id="rId2" location="32751f5c63" xr:uid="{E9148BCB-EEF7-45E0-8FB3-85FE3A0E92D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Personal development.xlsx
+++ b/Personal development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohumench\Documents\Olehs_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git\Olehs_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39050E66-D788-4B75-9E23-EE09E9BEB596}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E65F6-DA0C-442A-BD5D-3CC8EF7C3C18}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perspective work ways." sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Buisness" sheetId="3" r:id="rId3"/>
     <sheet name="investments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Engineering Level</t>
   </si>
@@ -276,9 +276,6 @@
     <t xml:space="preserve">Way </t>
   </si>
   <si>
-    <t xml:space="preserve">service </t>
-  </si>
-  <si>
     <t xml:space="preserve">Idea </t>
   </si>
   <si>
@@ -322,6 +319,15 @@
   </si>
   <si>
     <t>https://www.olx.ua/obyavlenie/prodazh-dach-IDBXUfK.html#2a5bede4e9</t>
+  </si>
+  <si>
+    <t>Cheap RLC tweezers</t>
+  </si>
+  <si>
+    <t>UV Flashlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service </t>
   </si>
 </sst>
 </file>
@@ -682,6 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,11 +701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,7 +760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -860,7 +866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1063,7 +1069,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1077,7 +1083,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1095,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1107,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1115,7 +1121,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1127,7 +1133,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1145,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1153,7 +1159,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1171,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1179,7 +1185,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1197,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="17" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1209,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1217,7 +1223,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -1229,7 +1235,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1268,7 +1274,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="22" t="s">
         <v>57</v>
       </c>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -1295,7 +1301,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1359,7 @@
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -1408,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD586B-AFF8-44AA-AE33-52C9DE9701E6}">
-  <dimension ref="C1:F16"/>
+  <dimension ref="C1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1438,7 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
@@ -1443,77 +1449,93 @@
         <v>80</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="28" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="E12" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>88</v>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5D6ADC-6F7B-4B87-9D1E-0231205C8855}">
   <dimension ref="C3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1537,22 +1559,22 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
-        <v>96</v>
+      <c r="C6" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
